--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona-my.sharepoint.com/personal/jxiong_simcona_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E88D2745-8464-4C43-8C32-173585D4FB43}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDA39D1-25E0-45CD-8A25-6D6A075F6FDE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Korey Sugar</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Daisy Moreau</t>
+  </si>
+  <si>
+    <t>ZyAsia Holmes</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,15 +204,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,15 +650,18 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
         <v>1166</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -649,7 +669,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -657,7 +677,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -665,7 +685,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -673,7 +693,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -681,7 +701,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -689,7 +709,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -697,7 +717,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -705,7 +725,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -713,7 +733,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -721,7 +741,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -729,7 +749,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -737,7 +757,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -745,7 +765,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -753,7 +773,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -776,9 +796,6 @@
       <c r="B34">
         <v>1165</v>
       </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -787,9 +804,6 @@
       <c r="B35">
         <v>1186</v>
       </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -799,6 +813,17 @@
         <v>1151</v>
       </c>
       <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>1185</v>
+      </c>
+      <c r="C37" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona-my.sharepoint.com/personal/jxiong_simcona_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDA39D1-25E0-45CD-8A25-6D6A075F6FDE}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5751C471-AA6D-4BF1-936A-595E8107D788}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Korey Sugar</t>
   </si>
@@ -165,6 +165,21 @@
   </si>
   <si>
     <t>ZyAsia Holmes</t>
+  </si>
+  <si>
+    <t>An Nguyen</t>
+  </si>
+  <si>
+    <t>AF8446CB</t>
+  </si>
+  <si>
+    <t>11D14592</t>
+  </si>
+  <si>
+    <t>D4C6CF96</t>
+  </si>
+  <si>
+    <t>CB46D992</t>
   </si>
 </sst>
 </file>
@@ -221,12 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +692,9 @@
       <c r="B19">
         <v>1162</v>
       </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -692,6 +711,9 @@
       <c r="B21">
         <v>1147</v>
       </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -716,6 +738,9 @@
       <c r="B24">
         <v>1199</v>
       </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -826,6 +851,20 @@
       <c r="C37" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona-my.sharepoint.com/personal/jxiong_simcona_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5751C471-AA6D-4BF1-936A-595E8107D788}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C169C6-56A5-49AE-AE31-B3A4D738D7B0}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Korey Sugar</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>CB46D992</t>
+  </si>
+  <si>
+    <t>1E29AC8A</t>
   </si>
 </sst>
 </file>
@@ -236,13 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +635,9 @@
       <c r="B12">
         <v>1103</v>
       </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -853,7 +858,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
@@ -862,9 +867,6 @@
       <c r="C38" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona-my.sharepoint.com/personal/jxiong_simcona_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C169C6-56A5-49AE-AE31-B3A4D738D7B0}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D586E86A-D203-468D-B56B-38AD65574555}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Korey Sugar</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>1E29AC8A</t>
+  </si>
+  <si>
+    <t>Michael Maksymciw</t>
   </si>
 </sst>
 </file>
@@ -525,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,9 +746,6 @@
       <c r="B24">
         <v>1199</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -866,6 +866,17 @@
       </c>
       <c r="C38" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>1080</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona-my.sharepoint.com/personal/jxiong_simcona_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABDACC1048AB49DF5EEE5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D586E86A-D203-468D-B56B-38AD65574555}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,160 +39,172 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Adam Price</t>
+  </si>
+  <si>
+    <t>Amit Mallik</t>
+  </si>
+  <si>
+    <t>An Nguyen</t>
+  </si>
+  <si>
+    <t>AF8446CB</t>
+  </si>
+  <si>
+    <t>Andrew Carlton</t>
+  </si>
+  <si>
+    <t>Arthur Musso</t>
+  </si>
+  <si>
+    <t>Carlos Maldonado</t>
+  </si>
+  <si>
+    <t>Daisy Moreau</t>
+  </si>
+  <si>
+    <t>C4090B29</t>
+  </si>
+  <si>
+    <t>Damarley Barrett</t>
+  </si>
+  <si>
+    <t>Dominic Miller</t>
+  </si>
+  <si>
+    <t>Elias Lopez</t>
+  </si>
+  <si>
+    <t>Felicita Harris</t>
+  </si>
+  <si>
+    <t>1E29AC8A</t>
+  </si>
+  <si>
+    <t>Jeffrey Smith</t>
+  </si>
+  <si>
+    <t>Jennifer Leslie</t>
+  </si>
+  <si>
+    <t>Jeremy Lisowski</t>
+  </si>
+  <si>
+    <t>1C106BD2</t>
+  </si>
+  <si>
+    <t>Jeremy Peden-Dorsey</t>
+  </si>
+  <si>
+    <t>Joseph Kucmerowski</t>
+  </si>
+  <si>
+    <t>Joshua Ladd</t>
+  </si>
+  <si>
+    <t>CB46D992</t>
+  </si>
+  <si>
+    <t>Justin Blake</t>
+  </si>
+  <si>
+    <t>Justin Sampel</t>
+  </si>
   <si>
     <t>Korey Sugar</t>
   </si>
   <si>
-    <t>Felicita Harris</t>
+    <t>Maria Raquel Pum</t>
+  </si>
+  <si>
+    <t>11D14592</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Mark Zhukov</t>
+  </si>
+  <si>
+    <t>Mason Gardner</t>
+  </si>
+  <si>
+    <t>Michael Maksymciw</t>
+  </si>
+  <si>
+    <t>Michael Tucciarello</t>
+  </si>
+  <si>
+    <t>Nino Bruno</t>
+  </si>
+  <si>
+    <t>Oleksandr Pogorilov</t>
+  </si>
+  <si>
+    <t>Rashard Moore</t>
+  </si>
+  <si>
+    <t>Reginald Tucker</t>
+  </si>
+  <si>
+    <t>Rodd McGowan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roedell Williams, </t>
+  </si>
+  <si>
+    <t>Williams Jr</t>
+  </si>
+  <si>
+    <t>Saad Shamsaldeen</t>
+  </si>
+  <si>
+    <t>Shalmsaldeen</t>
   </si>
   <si>
     <t>Sayed Hossiny</t>
   </si>
   <si>
-    <t>Justin Sampel</t>
-  </si>
-  <si>
-    <t>Reginald Tucker</t>
-  </si>
-  <si>
-    <t>Tim Ferriter</t>
-  </si>
-  <si>
-    <t>Jaelin Blas</t>
-  </si>
-  <si>
-    <t>Hannah Eldridge</t>
-  </si>
-  <si>
-    <t>Kelly Pum</t>
-  </si>
-  <si>
-    <t>Chun Liu</t>
-  </si>
-  <si>
-    <t>Thomas Heinlin</t>
-  </si>
-  <si>
-    <t>Jeremy Peden-Dorsey</t>
-  </si>
-  <si>
-    <t>Joshua Ladd</t>
-  </si>
-  <si>
-    <t>Jeremy Lisowski</t>
-  </si>
-  <si>
-    <t>Saad Shalmsaldeen</t>
-  </si>
-  <si>
-    <t>Eugene Kim</t>
-  </si>
-  <si>
-    <t>Michael Tucciarello</t>
-  </si>
-  <si>
-    <t>Adam Hemmouda</t>
-  </si>
-  <si>
-    <t>Dominic Miller</t>
-  </si>
-  <si>
-    <t>Nathan Ruffell</t>
-  </si>
-  <si>
-    <t>Brandon Leonard</t>
-  </si>
-  <si>
-    <t>Rodd McGowan</t>
-  </si>
-  <si>
-    <t>Eric Close</t>
-  </si>
-  <si>
-    <t>Quanshay Grant</t>
-  </si>
-  <si>
-    <t>Elizabeth Hazel</t>
-  </si>
-  <si>
-    <t>David Rivera Lugo</t>
-  </si>
-  <si>
-    <t>Arthur Musso</t>
-  </si>
-  <si>
-    <t>Alec Eisert</t>
-  </si>
-  <si>
-    <t>Haoming Li</t>
-  </si>
-  <si>
-    <t>Michael Makris</t>
-  </si>
-  <si>
-    <t>Jason Jackson</t>
-  </si>
-  <si>
-    <t>Lauren Caster</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>1C106BD2</t>
-  </si>
-  <si>
-    <t>C4090B29</t>
+    <t>Shondrell Rutley</t>
+  </si>
+  <si>
+    <t>Steven Dessie</t>
+  </si>
+  <si>
+    <t>Tj Heinlin</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Zy'Asia Holmes</t>
   </si>
   <si>
     <t>A46E6932</t>
   </si>
   <si>
-    <t xml:space="preserve">Roedell Williams Jr </t>
-  </si>
-  <si>
-    <t>Elias Lopez</t>
-  </si>
-  <si>
-    <t>Daisy Moreau</t>
-  </si>
-  <si>
-    <t>ZyAsia Holmes</t>
-  </si>
-  <si>
-    <t>An Nguyen</t>
-  </si>
-  <si>
-    <t>AF8446CB</t>
-  </si>
-  <si>
-    <t>11D14592</t>
-  </si>
-  <si>
-    <t>D4C6CF96</t>
-  </si>
-  <si>
-    <t>CB46D992</t>
-  </si>
-  <si>
-    <t>1E29AC8A</t>
-  </si>
-  <si>
-    <t>Michael Maksymciw</t>
+    <t>ZyAsia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +216,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,12 +261,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,361 +555,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1097</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1216</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1214</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1204</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B8">
+        <v>1151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1215</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>1175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1103</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1190</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>1166</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>1162</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>1125</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B21">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
         <v>1147</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1217</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1154</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1088</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1182</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1174</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1165</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>1168</v>
+      </c>
+      <c r="D33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
         <v>1116</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1134</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1192</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37">
         <v>1159</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>1151</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
         <v>1185</v>
       </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>1218</v>
-      </c>
       <c r="C38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>1080</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A56">
-    <sortCondition ref="A1:A56"/>
+  <autoFilter ref="A1:A55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE1A458-6853-40AC-AB0B-12E564889E94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -198,13 +198,16 @@
   </si>
   <si>
     <t>ZyAsia</t>
+  </si>
+  <si>
+    <t>D4C6CF96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +226,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +569,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +815,9 @@
       <c r="B25" s="6">
         <v>1088</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -936,4 +949,192 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
+    <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f08ef0c-19d2-46df-8915-2428da870300" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f08ef0c-19d2-46df-8915-2428da870300"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE1A458-6853-40AC-AB0B-12E564889E94}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A374E504-1714-4F93-8547-2CF83174EAFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Changes</t>
-  </si>
-  <si>
     <t>Adam Price</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>11D14592</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t>Mark Zhukov</t>
   </si>
   <si>
@@ -167,15 +161,9 @@
     <t xml:space="preserve">Roedell Williams, </t>
   </si>
   <si>
-    <t>Williams Jr</t>
-  </si>
-  <si>
     <t>Saad Shamsaldeen</t>
   </si>
   <si>
-    <t>Shalmsaldeen</t>
-  </si>
-  <si>
     <t>Sayed Hossiny</t>
   </si>
   <si>
@@ -188,19 +176,25 @@
     <t>Tj Heinlin</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
     <t>Zy'Asia Holmes</t>
   </si>
   <si>
     <t>A46E6932</t>
   </si>
   <si>
-    <t>ZyAsia</t>
-  </si>
-  <si>
     <t>D4C6CF96</t>
+  </si>
+  <si>
+    <t>F76CB634</t>
+  </si>
+  <si>
+    <t>4428B3A0</t>
+  </si>
+  <si>
+    <t>B455EFD2</t>
+  </si>
+  <si>
+    <t>0489D091</t>
   </si>
 </sst>
 </file>
@@ -566,20 +560,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,362 +582,352 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B2" s="6">
         <v>1097</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>1216</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1218</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>1214</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1194</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>1204</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1151</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B9" s="6">
         <v>1215</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1175</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1186</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1103</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
       </c>
       <c r="B13">
         <v>1127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6">
         <v>1190</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1166</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
       </c>
       <c r="B16">
         <v>1161</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1162</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
       <c r="B19">
         <v>1169</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1047</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1147</v>
       </c>
       <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B23" s="6">
         <v>1217</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6">
         <v>1154</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6">
         <v>1088</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1171</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>1061</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6">
         <v>1182</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6">
         <v>1174</v>
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>1181</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>1165</v>
       </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>1168</v>
       </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>1116</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6">
         <v>1134</v>
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6">
         <v>1192</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>1159</v>
       </c>
-      <c r="D37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>1185</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C51">
     <sortCondition ref="A1:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A374E504-1714-4F93-8547-2CF83174EAFF}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85784CF4-001B-4356-A5F1-94026141E466}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Rodd McGowan</t>
   </si>
   <si>
-    <t xml:space="preserve">Roedell Williams, </t>
-  </si>
-  <si>
     <t>Saad Shamsaldeen</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>0489D091</t>
+  </si>
+  <si>
+    <t>Roedell Williams,</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>1194</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>1088</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>1182</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,18 +863,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>1165</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1168</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1116</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="6">
         <v>1134</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="6">
         <v>1192</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>1159</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>1185</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -935,6 +935,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1072,22 +1087,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1103,21 +1120,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85784CF4-001B-4356-A5F1-94026141E466}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49615E7-A548-4D63-9A2C-5FCD470AF901}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="38790" windowHeight="21270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -195,6 +195,21 @@
   </si>
   <si>
     <t>Roedell Williams,</t>
+  </si>
+  <si>
+    <t>F72F821E</t>
+  </si>
+  <si>
+    <t>FA02F7A3</t>
+  </si>
+  <si>
+    <t>50483E8D</t>
+  </si>
+  <si>
+    <t>99366BB0</t>
+  </si>
+  <si>
+    <t>F90B3594</t>
   </si>
 </sst>
 </file>
@@ -563,7 +578,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +656,9 @@
       <c r="B7" s="6">
         <v>1204</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -678,6 +695,9 @@
       <c r="B11">
         <v>1186</v>
       </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -705,7 +725,9 @@
       <c r="B14" s="6">
         <v>1190</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -816,6 +838,9 @@
       <c r="B26">
         <v>1171</v>
       </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -895,7 +920,9 @@
       <c r="B35" s="6">
         <v>1134</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -944,12 +971,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1087,6 +1108,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
   <ds:schemaRefs>
@@ -1096,15 +1123,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1120,4 +1138,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49615E7-A548-4D63-9A2C-5FCD470AF901}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="38790" windowHeight="21270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9945" yWindow="5265" windowWidth="14145" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,6 +971,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1108,12 +1114,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
   <ds:schemaRefs>
@@ -1123,6 +1123,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1138,13 +1147,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49615E7-A548-4D63-9A2C-5FCD470AF901}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F010DE-F0D3-4A8C-A4B7-3EFA35C11424}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="5265" windowWidth="14145" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +210,39 @@
   </si>
   <si>
     <t>F90B3594</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>N521D5060024</t>
+  </si>
+  <si>
+    <t>N521D5060019</t>
+  </si>
+  <si>
+    <t>86FA1A07</t>
+  </si>
+  <si>
+    <t>8166BF3C</t>
+  </si>
+  <si>
+    <t>N521D5060035</t>
+  </si>
+  <si>
+    <t>B93BAE45</t>
+  </si>
+  <si>
+    <t>DBFC40AA</t>
+  </si>
+  <si>
+    <t>N521D5060033</t>
+  </si>
+  <si>
+    <t>BCAFEC01</t>
+  </si>
+  <si>
+    <t>N521D5060027</t>
   </si>
 </sst>
 </file>
@@ -280,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,10 +324,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,48 +612,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1097</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1216</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -627,18 +678,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -649,18 +700,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1204</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -671,24 +722,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1215</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B10">
         <v>1175</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -699,7 +761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -710,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -718,18 +780,18 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1190</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -740,7 +802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -806,7 +868,7 @@
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1217</v>
       </c>
       <c r="C23" s="3"/>
@@ -815,7 +877,7 @@
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>1154</v>
       </c>
       <c r="C24" s="3"/>
@@ -824,10 +886,10 @@
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1088</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -854,7 +916,7 @@
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>1182</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -865,7 +927,7 @@
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>1174</v>
       </c>
       <c r="C29" s="3"/>
@@ -897,43 +959,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B33">
         <v>1168</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B34">
         <v>1116</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>1134</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>1192</v>
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -941,7 +1009,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -958,6 +1026,7 @@
     <sortCondition ref="A1:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -971,12 +1040,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1114,6 +1177,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
   <ds:schemaRefs>
@@ -1123,15 +1192,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1147,4 +1207,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18F010DE-F0D3-4A8C-A4B7-3EFA35C11424}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06DA2EE5-EE0D-4990-88B1-F8311297678A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$54</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -50,60 +50,129 @@
     <t>ID</t>
   </si>
   <si>
+    <t>S/N</t>
+  </si>
+  <si>
     <t>Adam Price</t>
   </si>
   <si>
+    <t>86FA1A07</t>
+  </si>
+  <si>
+    <t>N521D5060024</t>
+  </si>
+  <si>
     <t>Amit Mallik</t>
   </si>
   <si>
+    <t>8166BF3C</t>
+  </si>
+  <si>
+    <t>N521D5060019</t>
+  </si>
+  <si>
     <t>An Nguyen</t>
   </si>
   <si>
     <t>AF8446CB</t>
   </si>
   <si>
+    <t>N515D5060001</t>
+  </si>
+  <si>
     <t>Andrew Carlton</t>
   </si>
   <si>
+    <t>F76CB634</t>
+  </si>
+  <si>
+    <t>N521D5060031</t>
+  </si>
+  <si>
     <t>Arthur Musso</t>
   </si>
   <si>
+    <t>4428B3A0</t>
+  </si>
+  <si>
+    <t>N521D5060025</t>
+  </si>
+  <si>
     <t>Carlos Maldonado</t>
   </si>
   <si>
+    <t>F90B3594</t>
+  </si>
+  <si>
+    <t>N521D5060013</t>
+  </si>
+  <si>
     <t>Daisy Moreau</t>
   </si>
   <si>
     <t>C4090B29</t>
   </si>
   <si>
+    <t>N324D5G0116</t>
+  </si>
+  <si>
     <t>Damarley Barrett</t>
   </si>
   <si>
+    <t>B93BAE45</t>
+  </si>
+  <si>
+    <t>N521D5060035</t>
+  </si>
+  <si>
     <t>Dominic Miller</t>
   </si>
   <si>
+    <t>DBFC40AA</t>
+  </si>
+  <si>
+    <t>N521D5060033</t>
+  </si>
+  <si>
     <t>Elias Lopez</t>
   </si>
   <si>
+    <t>99366BB0</t>
+  </si>
+  <si>
+    <t>N521D5060003</t>
+  </si>
+  <si>
     <t>Felicita Harris</t>
   </si>
   <si>
     <t>1E29AC8A</t>
   </si>
   <si>
+    <t>N445D50054</t>
+  </si>
+  <si>
     <t>Jeffrey Smith</t>
   </si>
   <si>
     <t>Jennifer Leslie</t>
   </si>
   <si>
+    <t>50483E8D</t>
+  </si>
+  <si>
+    <t>N521D5060034</t>
+  </si>
+  <si>
     <t>Jeremy Lisowski</t>
   </si>
   <si>
     <t>1C106BD2</t>
   </si>
   <si>
+    <t>N445D50043</t>
+  </si>
+  <si>
     <t>Jeremy Peden-Dorsey</t>
   </si>
   <si>
@@ -116,6 +185,9 @@
     <t>CB46D992</t>
   </si>
   <si>
+    <t>N445D50044</t>
+  </si>
+  <si>
     <t>Justin Blake</t>
   </si>
   <si>
@@ -131,6 +203,9 @@
     <t>11D14592</t>
   </si>
   <si>
+    <t>N445D50019</t>
+  </si>
+  <si>
     <t>Mark Zhukov</t>
   </si>
   <si>
@@ -140,15 +215,24 @@
     <t>Michael Maksymciw</t>
   </si>
   <si>
+    <t>D4C6CF96</t>
+  </si>
+  <si>
+    <t>N515D5060010</t>
+  </si>
+  <si>
     <t>Michael Tucciarello</t>
   </si>
   <si>
-    <t>Nino Bruno</t>
+    <t>F72F821E</t>
   </si>
   <si>
     <t>Oleksandr Pogorilov</t>
   </si>
   <si>
+    <t>B455EFD2</t>
+  </si>
+  <si>
     <t>Rashard Moore</t>
   </si>
   <si>
@@ -158,15 +242,30 @@
     <t>Rodd McGowan</t>
   </si>
   <si>
+    <t>Roedell Williams,</t>
+  </si>
+  <si>
+    <t>0489D091</t>
+  </si>
+  <si>
     <t>Saad Shamsaldeen</t>
   </si>
   <si>
     <t>Sayed Hossiny</t>
   </si>
   <si>
+    <t>BCAFEC01</t>
+  </si>
+  <si>
+    <t>N521D5060027</t>
+  </si>
+  <si>
     <t>Shondrell Rutley</t>
   </si>
   <si>
+    <t>FA02F7A3</t>
+  </si>
+  <si>
     <t>Steven Dessie</t>
   </si>
   <si>
@@ -179,70 +278,37 @@
     <t>A46E6932</t>
   </si>
   <si>
-    <t>D4C6CF96</t>
-  </si>
-  <si>
-    <t>F76CB634</t>
-  </si>
-  <si>
-    <t>4428B3A0</t>
-  </si>
-  <si>
-    <t>B455EFD2</t>
-  </si>
-  <si>
-    <t>0489D091</t>
-  </si>
-  <si>
-    <t>Roedell Williams,</t>
-  </si>
-  <si>
-    <t>F72F821E</t>
-  </si>
-  <si>
-    <t>FA02F7A3</t>
-  </si>
-  <si>
-    <t>50483E8D</t>
-  </si>
-  <si>
-    <t>99366BB0</t>
-  </si>
-  <si>
-    <t>F90B3594</t>
-  </si>
-  <si>
-    <t>S/N</t>
-  </si>
-  <si>
-    <t>N521D5060024</t>
-  </si>
-  <si>
-    <t>N521D5060019</t>
-  </si>
-  <si>
-    <t>86FA1A07</t>
-  </si>
-  <si>
-    <t>8166BF3C</t>
-  </si>
-  <si>
-    <t>N521D5060035</t>
-  </si>
-  <si>
-    <t>B93BAE45</t>
-  </si>
-  <si>
-    <t>DBFC40AA</t>
-  </si>
-  <si>
-    <t>N521D5060033</t>
-  </si>
-  <si>
-    <t>BCAFEC01</t>
-  </si>
-  <si>
-    <t>N521D5060027</t>
+    <t>N521D5060009</t>
+  </si>
+  <si>
+    <t>N521D5060032</t>
+  </si>
+  <si>
+    <t>N521D5060020</t>
+  </si>
+  <si>
+    <t>N521D5060015</t>
+  </si>
+  <si>
+    <t>N445D50036</t>
+  </si>
+  <si>
+    <t>63F447B</t>
+  </si>
+  <si>
+    <t>N521D5060023</t>
+  </si>
+  <si>
+    <t>52FBA5FF</t>
+  </si>
+  <si>
+    <t>N521D5060012</t>
+  </si>
+  <si>
+    <t>EC44ACBC</t>
+  </si>
+  <si>
+    <t>N521D5060026</t>
   </si>
 </sst>
 </file>
@@ -313,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,11 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +409,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,145 +702,166 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1097</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="5">
         <v>1216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1218</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1194</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>1204</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1151</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="5">
         <v>1215</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
+      <c r="A10" t="s">
+        <v>28</v>
       </c>
       <c r="B10">
         <v>1175</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1186</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1103</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>1127</v>
@@ -782,248 +869,288 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5">
         <v>1190</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>1166</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>1161</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>1180</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>1162</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>1169</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>1125</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>1047</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>1147</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5">
         <v>1217</v>
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5">
         <v>1154</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5">
         <v>1088</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>1171</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1182</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5">
-        <v>1182</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="5">
         <v>1174</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>1132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B30">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B31">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B32">
-        <v>1165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>39</v>
+      <c r="A33" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B33">
-        <v>1168</v>
+        <v>1116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>1116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1134</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B35" s="5">
-        <v>1134</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1192</v>
-      </c>
-      <c r="C36" s="3"/>
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36">
+        <v>1159</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B37">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
         <v>1185</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C51">
-    <sortCondition ref="A1:A51"/>
+  <autoFilter ref="A1:A54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1031,6 +1158,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1039,7 +1172,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1177,13 +1310,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1191,7 +1327,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1207,13 +1343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06DA2EE5-EE0D-4990-88B1-F8311297678A}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4517D283-53D1-487A-A0EB-D3DC71F15BC8}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>N521D5060026</t>
+  </si>
+  <si>
+    <t>3A5DB840</t>
+  </si>
+  <si>
+    <t>N521D5060006</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +868,12 @@
       <c r="B13">
         <v>1127</v>
       </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1158,18 +1166,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,18 +1319,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4517D283-53D1-487A-A0EB-D3DC71F15BC8}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7751022E-154F-4D79-ABED-7F5B5596B08A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>N521D5060023</t>
   </si>
   <si>
-    <t>52FBA5FF</t>
-  </si>
-  <si>
     <t>N521D5060012</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>N521D5060006</t>
+  </si>
+  <si>
+    <t>52FBA5F</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,10 +869,10 @@
         <v>1127</v>
       </c>
       <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,10 +955,10 @@
         <v>1125</v>
       </c>
       <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,10 +1060,10 @@
         <v>1132</v>
       </c>
       <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
         <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1166,21 +1166,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1318,24 +1303,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1351,4 +1334,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7751022E-154F-4D79-ABED-7F5B5596B08A}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9FBD029-05F9-4397-8650-8F19D67D5D1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,7 +314,7 @@
     <t>N521D5060006</t>
   </si>
   <si>
-    <t>52FBA5F</t>
+    <t>52FBA5FF</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1166,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1303,22 +1318,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1334,21 +1351,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9FBD029-05F9-4397-8650-8F19D67D5D1D}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB99960-26C1-45DA-A3B9-40BEF8C35455}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$52</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Mark Zhukov</t>
   </si>
   <si>
-    <t>Mason Gardner</t>
-  </si>
-  <si>
     <t>Michael Maksymciw</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Reginald Tucker</t>
   </si>
   <si>
-    <t>Rodd McGowan</t>
-  </si>
-  <si>
     <t>Roedell Williams,</t>
   </si>
   <si>
@@ -315,6 +309,30 @@
   </si>
   <si>
     <t>52FBA5FF</t>
+  </si>
+  <si>
+    <t>7A21E43A</t>
+  </si>
+  <si>
+    <t>N521D5060004</t>
+  </si>
+  <si>
+    <t>0E9D9A52</t>
+  </si>
+  <si>
+    <t>N521D5060011</t>
+  </si>
+  <si>
+    <t>BC590752</t>
+  </si>
+  <si>
+    <t>N521D5060007</t>
+  </si>
+  <si>
+    <t>FECB7890</t>
+  </si>
+  <si>
+    <t>N521D5060010</t>
   </si>
 </sst>
 </file>
@@ -404,7 +422,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -415,6 +453,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D35" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D35" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
+    <tableColumn id="3" xr3:uid="{A5113D60-A208-4D3B-AE7F-AFC5B4E30E6B}" name="ID"/>
+    <tableColumn id="4" xr3:uid="{33A55599-BDA8-4FFD-981D-D1959F6AA101}" name="S/N"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,15 +731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
@@ -869,10 +921,10 @@
         <v>1127</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,6 +962,12 @@
       <c r="B16">
         <v>1161</v>
       </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -918,6 +976,12 @@
       <c r="B17">
         <v>1180</v>
       </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -941,10 +1005,10 @@
         <v>1169</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,10 +1019,10 @@
         <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,171 +1061,167 @@
         <v>56</v>
       </c>
       <c r="B24" s="5">
-        <v>1154</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>1088</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1088</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>1171</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>1171</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B26" s="5">
+        <v>1182</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="5">
-        <v>1174</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28">
+        <v>1132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
       <c r="B29">
-        <v>1132</v>
+        <v>1165</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30">
-        <v>1181</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>67</v>
+      <c r="A31" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B31">
-        <v>1165</v>
+        <v>1116</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1134</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1192</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>1159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35">
+        <v>1185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33">
-        <v>1116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1134</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1192</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37">
-        <v>1185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C50">
-    <sortCondition ref="A1:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C48">
+    <sortCondition ref="A1:A48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB99960-26C1-45DA-A3B9-40BEF8C35455}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F8FA92-7443-4840-9FED-BCF4600029C9}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="4605" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1226,21 +1226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1378,24 +1363,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1411,4 +1394,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F8FA92-7443-4840-9FED-BCF4600029C9}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1537A5-4256-4BB7-9926-CF13EDFFADEA}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="4605" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -287,9 +287,6 @@
     <t>N445D50036</t>
   </si>
   <si>
-    <t>63F447B</t>
-  </si>
-  <si>
     <t>N521D5060023</t>
   </si>
   <si>
@@ -333,6 +330,27 @@
   </si>
   <si>
     <t>N521D5060010</t>
+  </si>
+  <si>
+    <t>1AF41C46</t>
+  </si>
+  <si>
+    <t>N521D5060014</t>
+  </si>
+  <si>
+    <t>FB2B1B1E</t>
+  </si>
+  <si>
+    <t>N521D5060017</t>
+  </si>
+  <si>
+    <t>D1CECBAB</t>
+  </si>
+  <si>
+    <t>N521D5060029</t>
+  </si>
+  <si>
+    <t>637F447B</t>
   </si>
 </sst>
 </file>
@@ -734,7 +752,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,10 +939,10 @@
         <v>1127</v>
       </c>
       <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
         <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,10 +981,10 @@
         <v>1161</v>
       </c>
       <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
         <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,10 +995,10 @@
         <v>1180</v>
       </c>
       <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
         <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,10 +1023,10 @@
         <v>1169</v>
       </c>
       <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,10 +1037,10 @@
         <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,6 +1050,12 @@
       <c r="B21">
         <v>1047</v>
       </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1054,7 +1078,12 @@
       <c r="B23" s="5">
         <v>1217</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1106,10 +1135,10 @@
         <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,10 +1149,10 @@
         <v>1132</v>
       </c>
       <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
         <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,6 +1176,12 @@
       <c r="B30">
         <v>1168</v>
       </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -1193,10 +1228,10 @@
         <v>1159</v>
       </c>
       <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
         <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,6 +1261,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1363,22 +1413,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1394,21 +1446,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -752,7 +752,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,21 +1261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1413,24 +1398,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,4 +1429,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1537A5-4256-4BB7-9926-CF13EDFFADEA}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F9B74D3-3913-4691-8C1A-104044213903}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3240" yWindow="4785" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>637F447B</t>
+  </si>
+  <si>
+    <t>EAA2FE84</t>
+  </si>
+  <si>
+    <t>N521D5060021</t>
+  </si>
+  <si>
+    <t>Dan Knights</t>
+  </si>
+  <si>
+    <t>N521D5060018</t>
   </si>
 </sst>
 </file>
@@ -429,13 +441,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D35" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D35" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D36" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -749,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +779,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -781,7 +793,7 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1097</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -795,7 +807,7 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1216</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -823,7 +835,7 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -851,7 +863,7 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1207</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -879,7 +891,7 @@
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1215</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -949,7 +961,7 @@
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1190</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1075,7 +1087,7 @@
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>1217</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1089,10 +1101,10 @@
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>1088</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D24" t="s">
@@ -1117,7 +1129,7 @@
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>1182</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1131,7 +1143,7 @@
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1184,7 +1196,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B31">
@@ -1201,7 +1213,7 @@
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1134</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1215,10 +1227,15 @@
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>1192</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1246,6 +1263,20 @@
       </c>
       <c r="D35" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>1219</v>
+      </c>
+      <c r="C36" s="7">
+        <v>70626308</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F9B74D3-3913-4691-8C1A-104044213903}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DE54F6-9F3A-4C46-8154-904EE7D7293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3240" yWindow="4785" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Jeremy Peden-Dorsey</t>
-  </si>
-  <si>
-    <t>Joseph Kucmerowski</t>
   </si>
   <si>
     <t>Joshua Ladd</t>
@@ -763,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,10 +948,10 @@
         <v>1127</v>
       </c>
       <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,281 +990,281 @@
         <v>1161</v>
       </c>
       <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
         <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>1180</v>
       </c>
       <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
         <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>1162</v>
       </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>1169</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>1047</v>
       </c>
       <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
         <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>1147</v>
       </c>
       <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4">
         <v>1217</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
         <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4">
         <v>1088</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>1171</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4">
         <v>1182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4">
         <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>1132</v>
       </c>
       <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>1165</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>1168</v>
       </c>
       <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
         <v>101</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>1116</v>
       </c>
       <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4">
         <v>1134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="4">
         <v>1192</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
         <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1159</v>
       </c>
       <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
         <v>95</v>
-      </c>
-      <c r="D34" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1185</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>1219</v>
@@ -1276,7 +1273,7 @@
         <v>70626308</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1292,6 +1289,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1429,22 +1441,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1460,21 +1474,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DE54F6-9F3A-4C46-8154-904EE7D7293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C7561-9A0B-4524-8ED2-DAF23DA9634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>N521D5060018</t>
+  </si>
+  <si>
+    <t>Joseph Kucmerowski</t>
   </si>
 </sst>
 </file>
@@ -397,15 +400,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -426,11 +435,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,7 +488,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -758,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +819,9 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,7 +1050,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>1180</v>
@@ -1220,7 +1272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1233,8 +1285,12 @@
       <c r="D33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1248,32 +1304,32 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1219</v>
+      </c>
+      <c r="C35" s="10">
+        <v>70626308</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>1185</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>75</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36">
-        <v>1219</v>
-      </c>
-      <c r="C36" s="7">
-        <v>70626308</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1289,21 +1345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1441,24 +1482,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1474,4 +1513,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024C7561-9A0B-4524-8ED2-DAF23DA9634D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816A475-AE1C-4385-A397-1EC359FA5EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,13 +356,13 @@
     <t>N521D5060021</t>
   </si>
   <si>
-    <t>Dan Knights</t>
-  </si>
-  <si>
     <t>N521D5060018</t>
   </si>
   <si>
     <t>Joseph Kucmerowski</t>
+  </si>
+  <si>
+    <t>jess</t>
   </si>
 </sst>
 </file>
@@ -488,10 +488,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -810,7 +810,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>1180</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="8">
         <v>1219</v>
@@ -1315,7 +1315,7 @@
         <v>70626308</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,6 +1345,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1482,22 +1497,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1513,21 +1530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816A475-AE1C-4385-A397-1EC359FA5EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2ED145-B010-4F0B-9D96-DF40237A7594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -356,13 +356,7 @@
     <t>N521D5060021</t>
   </si>
   <si>
-    <t>N521D5060018</t>
-  </si>
-  <si>
     <t>Joseph Kucmerowski</t>
-  </si>
-  <si>
-    <t>jess</t>
   </si>
 </sst>
 </file>
@@ -532,8 +526,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D36" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D35" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D35" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -807,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1044,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>1180</v>
@@ -1305,36 +1299,22 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1219</v>
-      </c>
-      <c r="C35" s="10">
-        <v>70626308</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B36">
+      <c r="B35">
         <v>1185</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C35" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D35" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C48">
-    <sortCondition ref="A1:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1345,21 +1325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1497,24 +1462,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1530,4 +1493,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2ED145-B010-4F0B-9D96-DF40237A7594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8959607E-744B-4430-BD37-C4A90D090B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Joseph Kucmerowski</t>
+  </si>
+  <si>
+    <t>Dan Knights</t>
   </si>
 </sst>
 </file>
@@ -526,8 +529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D35" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D35" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D36" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1315,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36">
+        <v>70626308</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C47">
     <sortCondition ref="A1:A47"/>
@@ -1325,6 +1336,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1462,22 +1488,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1493,21 +1521,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8959607E-744B-4430-BD37-C4A90D090B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED82D31-123E-47DC-B708-E0DB4FCFAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>N521D5060024</t>
-  </si>
-  <si>
-    <t>Amit Mallik</t>
   </si>
   <si>
     <t>8166BF3C</t>
@@ -804,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,437 +847,437 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" s="4">
         <v>1216</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1218</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1194</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>1207</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1151</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>1215</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1175</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1186</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1103</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1127</v>
       </c>
       <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
         <v>85</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
         <v>1190</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1166</v>
       </c>
       <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>1161</v>
       </c>
       <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>1180</v>
       </c>
       <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
         <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1162</v>
       </c>
       <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>1169</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>1047</v>
       </c>
       <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
         <v>96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>1147</v>
       </c>
       <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4">
         <v>1217</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
-      </c>
-      <c r="D23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4">
         <v>1088</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1171</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4">
         <v>1182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4">
         <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>1132</v>
       </c>
       <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>1165</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>1168</v>
       </c>
       <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" t="s">
         <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1116</v>
       </c>
       <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
         <v>68</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4">
         <v>1134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4">
         <v>1192</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
@@ -1289,38 +1286,30 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1159</v>
       </c>
       <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
         <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>1185</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36">
-        <v>70626308</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1336,21 +1325,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1488,24 +1462,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1521,4 +1493,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED82D31-123E-47DC-B708-E0DB4FCFAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EABCF2E-1952-43E8-9165-C03FF7013EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,7 +804,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +851,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="4">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1325,6 +1325,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1462,22 +1477,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1493,21 +1510,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EABCF2E-1952-43E8-9165-C03FF7013EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B9203A-9C7D-4CE7-9521-D49EDD0A55D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="1350" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>Steven Dessie</t>
   </si>
   <si>
-    <t>Tj Heinlin</t>
-  </si>
-  <si>
     <t>Zy'Asia Holmes</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Dan Knights</t>
+  </si>
+  <si>
+    <t>Tj Heinlein</t>
   </si>
 </sst>
 </file>
@@ -394,21 +394,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -429,48 +423,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,12 +439,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +799,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4">
         <v>1219</v>
@@ -994,10 +945,10 @@
         <v>1127</v>
       </c>
       <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,24 +987,24 @@
         <v>1161</v>
       </c>
       <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>1180</v>
       </c>
       <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,10 +1029,10 @@
         <v>1169</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,10 +1043,10 @@
         <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,10 +1057,10 @@
         <v>1047</v>
       </c>
       <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
         <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,10 +1085,10 @@
         <v>1217</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
         <v>97</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,7 +1116,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,7 +1130,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,10 +1141,10 @@
         <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,10 +1155,10 @@
         <v>1132</v>
       </c>
       <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
         <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,7 +1172,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,10 +1183,10 @@
         <v>1168</v>
       </c>
       <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,10 +1214,10 @@
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -1274,42 +1225,38 @@
         <v>1192</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
         <v>102</v>
       </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>1159</v>
       </c>
       <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="D34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1185</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona-my.sharepoint.com/personal/jxiong_simcona_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D2B9203A-9C7D-4CE7-9521-D49EDD0A55D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17244507-213E-48E0-9FF8-F1061E4A96C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B9203A-9C7D-4CE7-9521-D49EDD0A55D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D35" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D35" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D36" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,18 +1272,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1425,18 +1425,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simcona.sharepoint.com/panel/operations/Data Collection/Scanning Data Processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{74978578-FC59-4ADD-B0C6-9D2274DDCC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F9B74D3-3913-4691-8C1A-104044213903}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7F675-81BA-4AC5-881D-8D279C9710EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3240" yWindow="4785" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38745" yWindow="645" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$51</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>N521D5060024</t>
   </si>
   <si>
-    <t>Amit Mallik</t>
-  </si>
-  <si>
     <t>8166BF3C</t>
   </si>
   <si>
@@ -176,193 +173,190 @@
     <t>Jeremy Peden-Dorsey</t>
   </si>
   <si>
+    <t>Joshua Ladd</t>
+  </si>
+  <si>
+    <t>CB46D992</t>
+  </si>
+  <si>
+    <t>N445D50044</t>
+  </si>
+  <si>
+    <t>Justin Blake</t>
+  </si>
+  <si>
+    <t>Justin Sampel</t>
+  </si>
+  <si>
+    <t>Korey Sugar</t>
+  </si>
+  <si>
+    <t>Maria Raquel Pum</t>
+  </si>
+  <si>
+    <t>11D14592</t>
+  </si>
+  <si>
+    <t>N445D50019</t>
+  </si>
+  <si>
+    <t>Mark Zhukov</t>
+  </si>
+  <si>
+    <t>Michael Maksymciw</t>
+  </si>
+  <si>
+    <t>D4C6CF96</t>
+  </si>
+  <si>
+    <t>N515D5060010</t>
+  </si>
+  <si>
+    <t>Michael Tucciarello</t>
+  </si>
+  <si>
+    <t>F72F821E</t>
+  </si>
+  <si>
+    <t>Oleksandr Pogorilov</t>
+  </si>
+  <si>
+    <t>B455EFD2</t>
+  </si>
+  <si>
+    <t>Rashard Moore</t>
+  </si>
+  <si>
+    <t>Reginald Tucker</t>
+  </si>
+  <si>
+    <t>Roedell Williams,</t>
+  </si>
+  <si>
+    <t>0489D091</t>
+  </si>
+  <si>
+    <t>Saad Shamsaldeen</t>
+  </si>
+  <si>
+    <t>Sayed Hossiny</t>
+  </si>
+  <si>
+    <t>BCAFEC01</t>
+  </si>
+  <si>
+    <t>N521D5060027</t>
+  </si>
+  <si>
+    <t>Shondrell Rutley</t>
+  </si>
+  <si>
+    <t>FA02F7A3</t>
+  </si>
+  <si>
+    <t>Steven Dessie</t>
+  </si>
+  <si>
+    <t>Zy'Asia Holmes</t>
+  </si>
+  <si>
+    <t>A46E6932</t>
+  </si>
+  <si>
+    <t>N521D5060009</t>
+  </si>
+  <si>
+    <t>N521D5060032</t>
+  </si>
+  <si>
+    <t>N521D5060020</t>
+  </si>
+  <si>
+    <t>N521D5060015</t>
+  </si>
+  <si>
+    <t>N445D50036</t>
+  </si>
+  <si>
+    <t>N521D5060023</t>
+  </si>
+  <si>
+    <t>N521D5060012</t>
+  </si>
+  <si>
+    <t>EC44ACBC</t>
+  </si>
+  <si>
+    <t>N521D5060026</t>
+  </si>
+  <si>
+    <t>3A5DB840</t>
+  </si>
+  <si>
+    <t>N521D5060006</t>
+  </si>
+  <si>
+    <t>52FBA5FF</t>
+  </si>
+  <si>
+    <t>7A21E43A</t>
+  </si>
+  <si>
+    <t>N521D5060004</t>
+  </si>
+  <si>
+    <t>0E9D9A52</t>
+  </si>
+  <si>
+    <t>N521D5060011</t>
+  </si>
+  <si>
+    <t>BC590752</t>
+  </si>
+  <si>
+    <t>N521D5060007</t>
+  </si>
+  <si>
+    <t>FECB7890</t>
+  </si>
+  <si>
+    <t>N521D5060010</t>
+  </si>
+  <si>
+    <t>1AF41C46</t>
+  </si>
+  <si>
+    <t>N521D5060014</t>
+  </si>
+  <si>
+    <t>FB2B1B1E</t>
+  </si>
+  <si>
+    <t>N521D5060017</t>
+  </si>
+  <si>
+    <t>D1CECBAB</t>
+  </si>
+  <si>
+    <t>N521D5060029</t>
+  </si>
+  <si>
+    <t>637F447B</t>
+  </si>
+  <si>
+    <t>EAA2FE84</t>
+  </si>
+  <si>
+    <t>N521D5060021</t>
+  </si>
+  <si>
     <t>Joseph Kucmerowski</t>
   </si>
   <si>
-    <t>Joshua Ladd</t>
-  </si>
-  <si>
-    <t>CB46D992</t>
-  </si>
-  <si>
-    <t>N445D50044</t>
-  </si>
-  <si>
-    <t>Justin Blake</t>
-  </si>
-  <si>
-    <t>Justin Sampel</t>
-  </si>
-  <si>
-    <t>Korey Sugar</t>
-  </si>
-  <si>
-    <t>Maria Raquel Pum</t>
-  </si>
-  <si>
-    <t>11D14592</t>
-  </si>
-  <si>
-    <t>N445D50019</t>
-  </si>
-  <si>
-    <t>Mark Zhukov</t>
-  </si>
-  <si>
-    <t>Michael Maksymciw</t>
-  </si>
-  <si>
-    <t>D4C6CF96</t>
-  </si>
-  <si>
-    <t>N515D5060010</t>
-  </si>
-  <si>
-    <t>Michael Tucciarello</t>
-  </si>
-  <si>
-    <t>F72F821E</t>
-  </si>
-  <si>
-    <t>Oleksandr Pogorilov</t>
-  </si>
-  <si>
-    <t>B455EFD2</t>
-  </si>
-  <si>
-    <t>Rashard Moore</t>
-  </si>
-  <si>
-    <t>Reginald Tucker</t>
-  </si>
-  <si>
-    <t>Roedell Williams,</t>
-  </si>
-  <si>
-    <t>0489D091</t>
-  </si>
-  <si>
-    <t>Saad Shamsaldeen</t>
-  </si>
-  <si>
-    <t>Sayed Hossiny</t>
-  </si>
-  <si>
-    <t>BCAFEC01</t>
-  </si>
-  <si>
-    <t>N521D5060027</t>
-  </si>
-  <si>
-    <t>Shondrell Rutley</t>
-  </si>
-  <si>
-    <t>FA02F7A3</t>
-  </si>
-  <si>
-    <t>Steven Dessie</t>
-  </si>
-  <si>
-    <t>Tj Heinlin</t>
-  </si>
-  <si>
-    <t>Zy'Asia Holmes</t>
-  </si>
-  <si>
-    <t>A46E6932</t>
-  </si>
-  <si>
-    <t>N521D5060009</t>
-  </si>
-  <si>
-    <t>N521D5060032</t>
-  </si>
-  <si>
-    <t>N521D5060020</t>
-  </si>
-  <si>
-    <t>N521D5060015</t>
-  </si>
-  <si>
-    <t>N445D50036</t>
-  </si>
-  <si>
-    <t>N521D5060023</t>
-  </si>
-  <si>
-    <t>N521D5060012</t>
-  </si>
-  <si>
-    <t>EC44ACBC</t>
-  </si>
-  <si>
-    <t>N521D5060026</t>
-  </si>
-  <si>
-    <t>3A5DB840</t>
-  </si>
-  <si>
-    <t>N521D5060006</t>
-  </si>
-  <si>
-    <t>52FBA5FF</t>
-  </si>
-  <si>
-    <t>7A21E43A</t>
-  </si>
-  <si>
-    <t>N521D5060004</t>
-  </si>
-  <si>
-    <t>0E9D9A52</t>
-  </si>
-  <si>
-    <t>N521D5060011</t>
-  </si>
-  <si>
-    <t>BC590752</t>
-  </si>
-  <si>
-    <t>N521D5060007</t>
-  </si>
-  <si>
-    <t>FECB7890</t>
-  </si>
-  <si>
-    <t>N521D5060010</t>
-  </si>
-  <si>
-    <t>1AF41C46</t>
-  </si>
-  <si>
-    <t>N521D5060014</t>
-  </si>
-  <si>
-    <t>FB2B1B1E</t>
-  </si>
-  <si>
-    <t>N521D5060017</t>
-  </si>
-  <si>
-    <t>D1CECBAB</t>
-  </si>
-  <si>
-    <t>N521D5060029</t>
-  </si>
-  <si>
-    <t>637F447B</t>
-  </si>
-  <si>
-    <t>EAA2FE84</t>
-  </si>
-  <si>
-    <t>N521D5060021</t>
-  </si>
-  <si>
     <t>Dan Knights</t>
   </si>
   <si>
-    <t>N521D5060018</t>
+    <t>Tj Heinlein</t>
   </si>
 </sst>
 </file>
@@ -433,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,9 +439,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +764,9 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,484 +798,470 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1219</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
-        <v>1216</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1218</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1194</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>1207</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>1151</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>1215</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>1175</v>
       </c>
       <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1186</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1103</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>1127</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
         <v>1190</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>1166</v>
       </c>
       <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>1161</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>1180</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1162</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>1169</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>1125</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>1047</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>1147</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="4">
         <v>1217</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4">
         <v>1088</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1171</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4">
         <v>1182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4">
         <v>1174</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>1132</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>1165</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>1168</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1116</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4">
         <v>1134</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="4">
         <v>1192</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>1159</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1185</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36">
-        <v>1219</v>
-      </c>
-      <c r="C36" s="7">
-        <v>70626308</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C48">
-    <sortCondition ref="A1:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7F675-81BA-4AC5-881D-8D279C9710EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD5040-851D-4D80-A227-36BB0A5FA59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38745" yWindow="645" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42405" yWindow="3105" windowWidth="21840" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -68,9 +68,6 @@
     <t>N521D5060019</t>
   </si>
   <si>
-    <t>An Nguyen</t>
-  </si>
-  <si>
     <t>AF8446CB</t>
   </si>
   <si>
@@ -95,15 +92,6 @@
     <t>N521D5060025</t>
   </si>
   <si>
-    <t>Carlos Maldonado</t>
-  </si>
-  <si>
-    <t>F90B3594</t>
-  </si>
-  <si>
-    <t>N521D5060013</t>
-  </si>
-  <si>
     <t>Daisy Moreau</t>
   </si>
   <si>
@@ -113,15 +101,6 @@
     <t>N324D5G0116</t>
   </si>
   <si>
-    <t>Damarley Barrett</t>
-  </si>
-  <si>
-    <t>B93BAE45</t>
-  </si>
-  <si>
-    <t>N521D5060035</t>
-  </si>
-  <si>
     <t>Dominic Miller</t>
   </si>
   <si>
@@ -140,15 +119,6 @@
     <t>N521D5060003</t>
   </si>
   <si>
-    <t>Felicita Harris</t>
-  </si>
-  <si>
-    <t>1E29AC8A</t>
-  </si>
-  <si>
-    <t>N445D50054</t>
-  </si>
-  <si>
     <t>Jeffrey Smith</t>
   </si>
   <si>
@@ -170,9 +140,6 @@
     <t>N445D50043</t>
   </si>
   <si>
-    <t>Jeremy Peden-Dorsey</t>
-  </si>
-  <si>
     <t>Joshua Ladd</t>
   </si>
   <si>
@@ -200,9 +167,6 @@
     <t>N445D50019</t>
   </si>
   <si>
-    <t>Mark Zhukov</t>
-  </si>
-  <si>
     <t>Michael Maksymciw</t>
   </si>
   <si>
@@ -254,9 +218,6 @@
     <t>FA02F7A3</t>
   </si>
   <si>
-    <t>Steven Dessie</t>
-  </si>
-  <si>
     <t>Zy'Asia Holmes</t>
   </si>
   <si>
@@ -305,12 +266,6 @@
     <t>N521D5060004</t>
   </si>
   <si>
-    <t>0E9D9A52</t>
-  </si>
-  <si>
-    <t>N521D5060011</t>
-  </si>
-  <si>
     <t>BC590752</t>
   </si>
   <si>
@@ -329,12 +284,6 @@
     <t>N521D5060014</t>
   </si>
   <si>
-    <t>FB2B1B1E</t>
-  </si>
-  <si>
-    <t>N521D5060017</t>
-  </si>
-  <si>
     <t>D1CECBAB</t>
   </si>
   <si>
@@ -344,12 +293,6 @@
     <t>637F447B</t>
   </si>
   <si>
-    <t>EAA2FE84</t>
-  </si>
-  <si>
-    <t>N521D5060021</t>
-  </si>
-  <si>
     <t>Joseph Kucmerowski</t>
   </si>
   <si>
@@ -357,6 +300,9 @@
   </si>
   <si>
     <t>Tj Heinlein</t>
+  </si>
+  <si>
+    <t>Cindy Carlton</t>
   </si>
 </sst>
 </file>
@@ -477,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D36" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D36" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D30" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -752,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,8 +710,10 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -799,7 +747,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4">
         <v>1219</v>
@@ -813,455 +761,371 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>1156</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1218</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>1214</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1194</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7">
+        <v>1151</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4">
-        <v>1207</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1175</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>1151</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9">
+        <v>1186</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4">
-        <v>1215</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>1127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>1175</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>1186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>1103</v>
+        <v>1166</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B13">
-        <v>1127</v>
+        <v>1180</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1190</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>1162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>1161</v>
+        <v>1125</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>1180</v>
+        <v>1047</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1088</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
-      </c>
-      <c r="B18">
-        <v>1162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19">
-        <v>1169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1182</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B20">
-        <v>1125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B21">
-        <v>1047</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="4">
+        <v>1174</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B22">
-        <v>1147</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23">
+        <v>1132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B24">
+        <v>1165</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1217</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1088</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1182</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>60</v>
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>1116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4">
-        <v>1174</v>
+        <v>1134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B28">
-        <v>1132</v>
+        <v>1159</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B29">
-        <v>1165</v>
+        <v>1185</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30">
-        <v>1168</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31">
-        <v>1116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1134</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1192</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34">
-        <v>1159</v>
-      </c>
-      <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35">
-        <v>1185</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C47">
-    <sortCondition ref="A1:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1272,6 +1136,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1409,22 +1288,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1440,21 +1321,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFD5040-851D-4D80-A227-36BB0A5FA59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDD219-CB31-4D58-BEC0-06B6A2A17FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42405" yWindow="3105" windowWidth="21840" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="3840" windowWidth="21840" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -119,9 +119,6 @@
     <t>N521D5060003</t>
   </si>
   <si>
-    <t>Jeffrey Smith</t>
-  </si>
-  <si>
     <t>Jennifer Leslie</t>
   </si>
   <si>
@@ -249,12 +246,6 @@
   </si>
   <si>
     <t>N521D5060026</t>
-  </si>
-  <si>
-    <t>3A5DB840</t>
-  </si>
-  <si>
-    <t>N521D5060006</t>
   </si>
   <si>
     <t>52FBA5FF</t>
@@ -423,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D30" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D30" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D29" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D29" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -698,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +738,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4">
         <v>1219</v>
@@ -761,7 +752,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>1156</v>
@@ -844,73 +835,73 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
-        <v>1127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
+      <c r="B10" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1190</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,10 +909,10 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>1169</v>
+        <v>1125</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
@@ -932,13 +923,13 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <v>1125</v>
+        <v>1047</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,52 +937,52 @@
         <v>38</v>
       </c>
       <c r="B17">
-        <v>1047</v>
+        <v>1147</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1088</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1088</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>1171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
-        <v>1171</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="A20" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1182</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -999,30 +990,30 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="4">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4">
-        <v>1174</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
+      <c r="B22">
+        <v>1132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,102 +1021,88 @@
         <v>50</v>
       </c>
       <c r="B23">
-        <v>1132</v>
+        <v>1165</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>1116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1134</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25">
-        <v>1168</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26">
-        <v>1116</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1134</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27">
+        <v>1159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>1159</v>
+        <v>1185</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29">
-        <v>1185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C36">
-    <sortCondition ref="A1:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C35">
+    <sortCondition ref="A1:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1136,21 +1113,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1288,24 +1250,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1321,4 +1281,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDDD219-CB31-4D58-BEC0-06B6A2A17FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA649150-AB10-472C-B8C4-A54F78A0EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3840" windowWidth="21840" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$A$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -218,9 +218,6 @@
     <t>Zy'Asia Holmes</t>
   </si>
   <si>
-    <t>A46E6932</t>
-  </si>
-  <si>
     <t>N521D5060009</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>N521D5060015</t>
   </si>
   <si>
-    <t>N445D50036</t>
-  </si>
-  <si>
     <t>N521D5060023</t>
   </si>
   <si>
@@ -294,6 +288,12 @@
   </si>
   <si>
     <t>Cindy Carlton</t>
+  </si>
+  <si>
+    <t>1E29AC8A</t>
+  </si>
+  <si>
+    <t>N445D50054</t>
   </si>
 </sst>
 </file>
@@ -414,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D29" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D29" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D28" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D28" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -692,7 +692,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4">
         <v>1219</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1156</v>
@@ -864,16 +864,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>1180</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,10 +898,10 @@
         <v>1169</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,10 +912,10 @@
         <v>1125</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,10 +926,10 @@
         <v>1047</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,10 +996,10 @@
         <v>1174</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,10 +1010,10 @@
         <v>1132</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,10 +1038,10 @@
         <v>1168</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1069,21 +1069,21 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>1159</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,15 +1094,15 @@
         <v>1185</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C35">
-    <sortCondition ref="A1:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1113,6 +1113,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1250,22 +1265,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1281,21 +1298,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Worker List.xlsx
+++ b/Worker List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jxiong\GitCode\TimeData_Processing\TimeData_Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA649150-AB10-472C-B8C4-A54F78A0EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCD28CF-D4E6-466A-9D90-0856487D45E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="7170" windowWidth="28800" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>N445D50054</t>
+  </si>
+  <si>
+    <t>James Allen</t>
+  </si>
+  <si>
+    <t>B93BAE45</t>
+  </si>
+  <si>
+    <t>N521D5060035</t>
   </si>
 </sst>
 </file>
@@ -414,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D28" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D28" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}" name="WorkerList" displayName="WorkerList" ref="A1:D29" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D29" xr:uid="{6D563B1C-36AA-4848-8058-EABF055A9F13}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BC46EB32-D445-45FC-8C0C-9E1D8D5CC019}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D157ED81-FA40-4E0E-8131-58D637CEEDB6}" name="Number"/>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1109,20 @@
         <v>84</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>1220</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C34">
     <sortCondition ref="A1:A34"/>
@@ -1113,21 +1136,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DC8F4689D9E3F4E90AB87244FC81278" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="782b18ecfc7f388633e7109c6de2c254">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f08ef0c-19d2-46df-8915-2428da870300" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2efddd814f80025b03089c394466155d" ns2:_="">
     <xsd:import namespace="7f08ef0c-19d2-46df-8915-2428da870300"/>
@@ -1265,24 +1273,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{709BA9FE-4172-4036-9FEA-255D70E7A54E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1298,4 +1304,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80B02D5E-43A9-4D45-81A7-99DDD9C80623}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C749C57F-916A-4417-9941-468069112434}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>